--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -1,66 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_sim/tests/multialgorithm/fixtures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="14260" tabRatio="989" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Taxon" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Taxon" sheetId="2" r:id="rId2"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
+    <sheet name="Species types" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="Observables" sheetId="7" r:id="rId7"/>
+    <sheet name="Functions" sheetId="8" r:id="rId8"/>
+    <sheet name="Reactions" sheetId="9" r:id="rId9"/>
+    <sheet name="Rate laws" sheetId="10" r:id="rId10"/>
+    <sheet name="Biomass components" sheetId="11" r:id="rId11"/>
+    <sheet name="Biomass reactions" sheetId="12" r:id="rId12"/>
+    <sheet name="Parameters" sheetId="13" r:id="rId13"/>
+    <sheet name="Stop conditions" sheetId="14" r:id="rId14"/>
+    <sheet name="References" sheetId="15" r:id="rId15"/>
+    <sheet name="Database references" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Compartments!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5">Concentrations!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15">'Database references'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7">Functions!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Model!$A$1:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6">Observables!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8">Reactions!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14">References!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Species types'!$A$1:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13">'Stop conditions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Taxon!$A$1:$A$6</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -71,245 +65,242 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
   <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2_species_1_reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wc_lang version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_0[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbonExchangeRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmol/gDCW/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fractionDryWeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nonCarbonExchangeRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>test_model</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>2_species_1_reaction</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>wc_lang version</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Biomass reaction</t>
+  </si>
+  <si>
+    <t>Objective function</t>
+  </si>
+  <si>
+    <t>test_submodel</t>
+  </si>
+  <si>
+    <t>ssa</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Initial volume</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>spec_type_0</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>spec_type_1</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Observables</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Min flux</t>
+  </si>
+  <si>
+    <t>Max flux</t>
+  </si>
+  <si>
+    <t>test_reaction_1</t>
+  </si>
+  <si>
+    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>K cat</t>
+  </si>
+  <si>
+    <t>K m</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Submodels</t>
+  </si>
+  <si>
+    <t>carbonExchangeRate</t>
+  </si>
+  <si>
+    <t>mmol/gDCW/h</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>nonCarbonExchangeRate</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -318,22 +309,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -355,7 +331,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -363,53 +339,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -468,96 +414,299 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B3" activeCellId="1" sqref="C3 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -581,25 +730,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -607,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -615,38 +764,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B8"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -669,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -686,38 +822,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,38 +865,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,38 +902,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -858,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -867,7 +964,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -876,14 +973,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>0.3</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -892,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -903,38 +1000,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H4"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,38 +1037,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,38 +1113,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1107,101 +1165,75 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A6"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,38 +1283,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1310,46 +1329,33 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1E-016</v>
+      <c r="D2" s="2">
+        <v>9.9999999999999998E-17</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1391,7 +1397,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2"/>
@@ -1401,7 +1407,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +1417,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>10</v>
       </c>
       <c r="G3" s="2"/>
@@ -1423,38 +1429,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J3"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1471,12 +1464,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0.0166053904042716</v>
+      <c r="B2" s="2">
+        <v>1.66053904042716E-2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -1484,12 +1477,12 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0.0166053904042716</v>
+      <c r="B3" s="2">
+        <v>1.66053904042716E-2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -1498,39 +1491,27 @@
       <c r="E3" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:E3"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,38 +1533,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,38 +1570,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1673,8 +1628,7 @@
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
@@ -1684,13 +1638,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="14260" tabRatio="989" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="14260" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>cytosol</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1231,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1269,6 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1292,11 +1294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1327,9 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="14260" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37900" windowHeight="21140" tabRatio="989" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>forward</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Coefficient</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>cytosol</t>
+  </si>
+  <si>
+    <t>"100"</t>
   </si>
 </sst>
 </file>
@@ -345,12 +345,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,14 +779,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -815,8 +821,8 @@
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -854,10 +860,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -934,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -951,7 +957,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -962,14 +968,14 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -985,7 +991,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -996,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1069,46 +1075,46 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>11</v>
@@ -1136,10 +1142,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1148,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>39</v>
@@ -1157,13 +1163,13 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1328,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1354,7 +1360,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1402,7 +1408,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
@@ -1422,7 +1428,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,51 +13,68 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$6</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$2</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$R$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -69,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -164,6 +181,18 @@
     <t xml:space="preserve">spec_type_1</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_0[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_1[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -173,15 +202,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">spec_type_0[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">spec_type_1[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observables</t>
   </si>
   <si>
@@ -231,12 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -313,7 +330,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -339,6 +356,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -392,7 +417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -402,6 +427,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -639,14 +668,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,19 +769,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -681,13 +792,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -707,7 +818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -738,10 +849,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -763,7 +874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -791,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -813,7 +924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -847,10 +958,10 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -924,7 +1035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -955,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -974,7 +1085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1063,7 +1174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1100,16 +1211,16 @@
         <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>77</v>
@@ -1198,12 +1309,12 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1444,6 +1555,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1451,7 +1636,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1461,13 +1646,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1478,26 +1663,26 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.0166053904042716</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.0166053904042716</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1516,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1547,10 +1732,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1569,7 +1754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1600,7 +1785,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1617,86 +1802,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,62 +19,78 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$R$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -86,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -124,136 +140,133 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_0[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"100"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_0[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"100"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -691,37 +704,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -769,36 +782,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -823,14 +836,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -846,23 +859,17 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -879,14 +886,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -902,17 +909,23 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -952,27 +965,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -983,14 +996,14 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1006,7 +1019,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1017,7 +1030,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1040,17 +1053,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
@@ -1063,17 +1076,14 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1090,17 +1100,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
@@ -1113,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>61</v>
@@ -1125,10 +1135,10 @@
         <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>65</v>
@@ -1155,14 +1165,11 @@
         <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:Q1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1196,34 +1203,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1244,17 +1251,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
@@ -1276,21 +1283,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A6"/>
+  <autoFilter ref="A1:A5"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1303,80 +1305,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" activeCellId="0" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1388,10 +1316,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
@@ -1404,31 +1332,26 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1E-016</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -1445,22 +1368,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
@@ -1473,72 +1396,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1E-016</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J3"/>
+  <autoFilter ref="A1:E2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1550,6 +1431,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1557,7 +1534,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1567,8 +1544,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,38 +1556,38 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1646,43 +1623,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.0166053904042716</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.0166053904042716</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1706,17 +1683,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
@@ -1729,20 +1706,14 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1759,17 +1730,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
@@ -1782,17 +1753,14 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
@@ -49,8 +49,8 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$E$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$E$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$3</definedName>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="110">
   <si>
     <t>Id</t>
   </si>
@@ -159,64 +159,82 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>spec_type_0</t>
@@ -398,9 +416,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -435,9 +453,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,13 +468,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +504,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,36 +533,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,14 +542,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,20 +556,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -562,14 +572,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -577,7 +580,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,6 +593,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -606,187 +624,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +815,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -812,8 +845,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,26 +881,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,30 +902,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -900,138 +918,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1609,22 +1627,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
@@ -1641,13 +1659,13 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5" t="b">
         <f>FALSE()</f>
@@ -1693,19 +1711,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1722,22 +1740,22 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1776,13 +1794,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1829,13 +1847,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1886,16 +1904,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>16</v>
@@ -1949,16 +1967,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -1975,58 +1993,58 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D3" s="5">
         <v>0.3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2065,10 +2083,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2119,28 +2137,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>16</v>
@@ -2188,46 +2206,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2366,32 +2384,32 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="11" width="8.78333333333333" style="3"/>
-    <col min="12" max="12" width="8.875" style="3" customWidth="1"/>
-    <col min="13" max="1028" width="8.78333333333333" style="3"/>
-    <col min="1029" max="16384" width="9" style="3"/>
+    <col min="1" max="14" width="8.78333333333333" style="3"/>
+    <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
+    <col min="16" max="1031" width="8.78333333333333" style="3"/>
+    <col min="1032" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2416,55 +2434,68 @@
         <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:10">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="10">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="10">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="3">
+      <c r="J2" s="3">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="3:3">
-      <c r="C3" s="5"/>
+      <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2">
+  <autoFilter ref="A1:H2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2500,19 +2531,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2529,10 +2560,10 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5">
         <v>1000</v>
@@ -2541,15 +2572,15 @@
         <v>-1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -2558,7 +2589,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2599,13 +2630,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2622,30 +2653,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2689,19 +2720,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2718,36 +2749,36 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2787,10 +2818,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
@@ -2841,10 +2872,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -306,7 +306,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>test_reaction_1</t>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>s^-1</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -417,9 +423,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -458,39 +464,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,6 +476,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,8 +502,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,54 +600,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -595,15 +609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,13 +630,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,13 +750,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,151 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,39 +821,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -881,11 +854,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,6 +876,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,141 +903,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1598,7 +1604,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1771,14 +1777,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1786,7 +1792,7 @@
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1803,15 +1809,21 @@
         <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1853,7 +1865,7 @@
         <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1904,13 +1916,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>58</v>
@@ -1970,10 +1982,10 @@
         <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>58</v>
@@ -1993,7 +2005,7 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>82</v>
@@ -2002,12 +2014,12 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>82</v>
@@ -2016,12 +2028,12 @@
         <v>0.3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>82</v>
@@ -2030,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" customHeight="1" spans="1:6">
@@ -2137,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>58</v>
@@ -2146,19 +2158,19 @@
         <v>51</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>16</v>
@@ -2206,46 +2218,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2386,7 +2398,7 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="116">
   <si>
     <t>Id</t>
   </si>
@@ -171,235 +171,247 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>spec_type_0</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>spec_type_1</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>test_reaction_1</t>
+  </si>
+  <si>
+    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>test_reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>carbonExchangeRate</t>
+  </si>
+  <si>
+    <t>mmol gDCW^-1 h^-1</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>nonCarbonExchangeRate</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>spec_type_0</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>spec_type_1</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>test_reaction_1</t>
-  </si>
-  <si>
-    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>test_reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>carbonExchangeRate</t>
-  </si>
-  <si>
-    <t>mmol gDCW^-1 h^-1</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>nonCarbonExchangeRate</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -422,10 +434,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -459,9 +471,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -472,10 +499,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,6 +530,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -504,14 +548,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,52 +584,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,6 +593,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,22 +614,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,6 +642,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -642,13 +666,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,157 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,17 +851,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,22 +895,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,15 +928,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -924,138 +936,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,6 +1091,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1086,9 +1101,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1698,14 +1710,16 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="8.78333333333333" style="3"/>
     <col min="3" max="3" width="13.5" style="3"/>
-    <col min="4" max="1025" width="8.78333333333333" style="3"/>
+    <col min="4" max="5" width="8.78333333333333" style="3"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="1025" width="8.78333333333333" style="3"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1723,13 +1737,13 @@
         <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1757,7 +1771,7 @@
       <c r="E2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1779,7 +1793,7 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1803,10 +1817,10 @@
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>85</v>
@@ -1862,7 +1876,7 @@
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>87</v>
@@ -1909,34 +1923,34 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1953,19 +1967,22 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="3"/>
+    <col min="1" max="1" width="21.75" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.78333333333333" style="3"/>
+    <col min="4" max="4" width="9.25" style="3"/>
+    <col min="5" max="5" width="8.78333333333333" style="3"/>
     <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
     <col min="7" max="1025" width="8.78333333333333" style="3"/>
     <col min="1026" max="16384" width="9" style="3"/>
@@ -1979,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>89</v>
@@ -1988,7 +2005,7 @@
         <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -2057,6 +2074,34 @@
       </c>
       <c r="F5" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2095,10 +2140,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2152,25 +2197,25 @@
         <v>89</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>16</v>
@@ -2218,46 +2263,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2396,26 +2441,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="14" width="8.78333333333333" style="3"/>
-    <col min="15" max="15" width="8.875" style="3" customWidth="1"/>
-    <col min="16" max="1031" width="8.78333333333333" style="3"/>
-    <col min="1032" max="16384" width="9" style="3"/>
+    <col min="1" max="13" width="8.78333333333333" style="3"/>
+    <col min="14" max="14" width="8.875" style="3" customWidth="1"/>
+    <col min="15" max="1030" width="8.78333333333333" style="3"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="9" t="s">
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2452,58 +2497,52 @@
         <v>35</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="3">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2543,19 +2582,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2572,10 +2611,10 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5">
         <v>1000</v>
@@ -2584,15 +2623,15 @@
         <v>-1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -2601,7 +2640,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2642,13 +2681,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2665,30 +2704,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2732,19 +2771,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2761,36 +2800,36 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2830,10 +2869,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
@@ -2861,19 +2900,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333"/>
+    <col min="1" max="2" width="8.78333333333333"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -2884,10 +2925,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2900,6 +2941,18 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -59,8 +59,8 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$I$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$I$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>Id</t>
   </si>
@@ -300,6 +300,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -315,6 +318,9 @@
     <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>Reaction</t>
   </si>
   <si>
@@ -331,9 +337,6 @@
   </si>
   <si>
     <t>k_cat</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>Reaction rate units</t>
@@ -434,8 +437,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -485,7 +488,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,9 +510,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,6 +532,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -516,22 +556,43 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -554,45 +615,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,28 +629,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -642,187 +645,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,17 +839,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,47 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -927,6 +904,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -936,134 +939,134 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1609,14 +1612,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1625,19 +1628,19 @@
     <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="3" customWidth="1"/>
-    <col min="13" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="5" max="6" width="9.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="3" customWidth="1"/>
+    <col min="14" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1663,35 +1666,41 @@
         <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:5">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2">
+  <autoFilter ref="A1:J2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1731,10 +1740,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>49</v>
@@ -1760,22 +1769,22 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1823,10 +1832,10 @@
         <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1879,7 +1888,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1930,13 +1939,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>56</v>
@@ -1999,10 +2008,10 @@
         <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>56</v>
@@ -2022,58 +2031,58 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="5">
         <v>0.3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -2081,31 +2090,31 @@
         <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3">
         <v>1100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H5">
+  <autoFilter ref="A1:H7">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2194,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>56</v>
@@ -2203,19 +2212,19 @@
         <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>16</v>
@@ -2263,46 +2272,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2902,7 +2911,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2956,7 +2965,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,81 +5,82 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$H$4</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$H$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -147,6 +148,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -388,9 +404,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -437,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -482,9 +495,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -494,8 +509,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,9 +532,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,48 +582,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,8 +612,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,34 +628,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -645,133 +658,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,49 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,6 +849,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -871,8 +908,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -904,32 +943,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -939,142 +952,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1105,6 +1118,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1612,9 +1628,77 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="8.78333333333333"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D2">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1648,31 +1732,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>17</v>
@@ -1683,20 +1767,20 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -1740,25 +1824,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1769,22 +1853,22 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1797,7 +1881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K1"/>
@@ -1823,25 +1907,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1856,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -1882,19 +1966,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1913,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -1939,22 +2023,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
@@ -1973,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J7"/>
@@ -2005,22 +2089,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -2031,86 +2115,86 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5">
         <v>0.3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3">
         <v>1100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2149,16 +2233,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -2177,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2203,34 +2287,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>17</v>
@@ -2245,7 +2329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -2272,46 +2356,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2338,7 +2422,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="topRight" activeCell="H5" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2388,6 +2472,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="3"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="11"/>
+    <col min="1020" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G2"/>
@@ -2414,13 +2576,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -2431,10 +2593,10 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P2"/>
@@ -2476,40 +2638,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>17</v>
@@ -2520,26 +2682,26 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -2548,10 +2710,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2564,7 +2726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K3"/>
@@ -2591,25 +2753,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2620,10 +2782,10 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5">
         <v>1000</v>
@@ -2632,15 +2794,15 @@
         <v>-1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -2649,7 +2811,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -2690,19 +2852,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2713,30 +2875,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2749,7 +2911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K3"/>
@@ -2780,25 +2942,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2809,36 +2971,36 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +3013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2878,16 +3040,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>17</v>
@@ -2904,72 +3066,4 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="8.78333333333333"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D2">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -39,8 +39,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
@@ -64,10 +64,10 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$J$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
@@ -364,7 +364,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -495,15 +495,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,19 +537,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -553,8 +545,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,17 +568,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,10 +593,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,17 +614,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -658,19 +658,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,163 +826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,15 +867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -887,6 +878,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,41 +943,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -952,137 +952,137 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2002,12 +2002,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:J1"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2476,7 +2476,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D6" sqref="D6"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -163,6 +163,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -380,9 +386,6 @@
   </si>
   <si>
     <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>nonCarbonExchangeRate</t>
@@ -487,17 +490,77 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -508,15 +571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,8 +585,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,45 +616,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -600,8 +624,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,28 +645,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -658,67 +661,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,115 +835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,6 +870,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -882,19 +903,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -917,32 +946,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -952,138 +955,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1653,16 +1656,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -1673,14 +1676,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1732,31 +1735,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>17</v>
@@ -1767,20 +1770,20 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1824,25 +1827,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1853,22 +1856,22 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1907,25 +1910,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1966,19 +1969,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2002,12 +2005,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2023,22 +2026,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
@@ -2089,22 +2092,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -2115,86 +2118,86 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5">
         <v>0.3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3">
         <v>1100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2233,16 +2236,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -2287,34 +2290,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>17</v>
@@ -2356,46 +2359,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2474,15 +2477,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
@@ -2528,18 +2531,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2576,13 +2587,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -2593,10 +2604,10 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2638,40 +2649,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>17</v>
@@ -2682,26 +2693,26 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -2710,10 +2721,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2753,25 +2764,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2782,10 +2793,10 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5">
         <v>1000</v>
@@ -2794,15 +2805,15 @@
         <v>-1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -2811,7 +2822,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2852,19 +2863,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2875,30 +2886,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2942,25 +2953,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2971,36 +2982,36 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3040,16 +3051,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>17</v>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,13 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
@@ -43,13 +44,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$3</definedName>
@@ -72,15 +73,15 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="128">
   <si>
     <t>Id</t>
   </si>
@@ -175,6 +176,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>test_submodel</t>
   </si>
   <si>
@@ -406,10 +410,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -453,9 +472,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -490,14 +509,54 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,33 +570,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,7 +592,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -563,6 +599,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -577,56 +622,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,7 +645,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +686,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,25 +794,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,139 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,15 +885,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,17 +928,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -946,6 +945,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -955,142 +974,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1102,6 +1121,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1523,7 +1545,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.78333333333333" style="3"/>
-    <col min="2" max="2" width="8.78333333333333" style="5"/>
+    <col min="2" max="2" width="8.78333333333333" style="6"/>
     <col min="3" max="1025" width="8.78333333333333" style="3"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
@@ -1532,7 +1554,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1540,7 +1562,7 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1548,7 +1570,7 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1571,7 +1593,7 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1594,7 +1616,7 @@
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1631,24 +1653,24 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="8.78333333333333"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333"/>
+    <col min="4" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1656,10 +1678,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -1668,22 +1690,25 @@
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1699,14 +1724,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1720,14 +1745,14 @@
     <col min="8" max="8" width="8.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.25" style="3" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="3" customWidth="1"/>
-    <col min="14" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="11" max="12" width="8.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="3" customWidth="1"/>
+    <col min="15" max="1027" width="8.78333333333333" style="3"/>
+    <col min="1028" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1735,25 +1760,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -1762,28 +1787,31 @@
         <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="5" t="b">
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>86</v>
+      <c r="F2" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1799,14 +1827,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1815,11 +1843,11 @@
     <col min="3" max="3" width="13.5" style="3"/>
     <col min="4" max="5" width="8.78333333333333" style="3"/>
     <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="7" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1827,19 +1855,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1848,30 +1876,33 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>86</v>
+      <c r="F2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1887,14 +1918,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1902,7 +1933,7 @@
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1910,19 +1941,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1931,9 +1962,12 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1946,22 +1980,22 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333"/>
+    <col min="1" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:9">
+    <row r="1" ht="15" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1969,13 +2003,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1984,9 +2018,12 @@
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2003,50 +2040,53 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333"/>
+    <col min="1" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2063,14 +2103,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2080,11 +2120,11 @@
     <col min="4" max="4" width="9.25" style="3"/>
     <col min="5" max="5" width="8.78333333333333" style="3"/>
     <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
-    <col min="7" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="7" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2092,16 +2132,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -2110,94 +2150,97 @@
         <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="5">
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="6">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="5">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="5">
-        <v>100</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>86</v>
+      <c r="F5" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="3">
         <v>1100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="7">
+        <v>92</v>
+      </c>
+      <c r="D7" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2213,22 +2256,22 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333"/>
+    <col min="1" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" ht="15" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2236,10 +2279,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2248,9 +2291,12 @@
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2267,14 +2313,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2282,7 +2328,7 @@
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2290,16 +2336,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>107</v>
@@ -2308,21 +2354,45 @@
         <v>108</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2335,85 +2405,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="3"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2474,12 +2557,97 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
@@ -2490,8 +2658,8 @@
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="3"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="11"/>
-    <col min="1020" max="16384" width="9" style="11"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="12"/>
+    <col min="1020" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -2563,23 +2731,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2596,22 +2764,25 @@
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2">
+  <autoFilter ref="A1:G2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2623,60 +2794,60 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="13" width="8.78333333333333" style="3"/>
-    <col min="14" max="14" width="8.875" style="3" customWidth="1"/>
-    <col min="15" max="1030" width="8.78333333333333" style="3"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="14" max="15" width="8.875" style="3" customWidth="1"/>
+    <col min="16" max="1031" width="8.78333333333333" style="3"/>
+    <col min="1032" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
-      <c r="A1" s="10" t="s">
+    <row r="1" customHeight="1" spans="1:17">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
@@ -2685,46 +2856,49 @@
         <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="7">
+        <v>50</v>
+      </c>
+      <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="3">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2740,23 +2914,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2764,19 +2938,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2785,44 +2959,47 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="5">
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="6">
         <v>1000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>-1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2838,24 +3015,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="6" width="15.5333333333333" style="3"/>
-    <col min="7" max="1025" width="9.10833333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="7" max="1026" width="9.10833333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2863,13 +3040,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2878,38 +3055,41 @@
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2925,14 +3105,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -2941,11 +3121,11 @@
     <col min="2" max="2" width="11.5" style="3"/>
     <col min="3" max="3" width="8.78333333333333" style="3"/>
     <col min="4" max="5" width="11.5" style="3"/>
-    <col min="6" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="6" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2953,19 +3133,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2974,44 +3154,47 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="5">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.0166053904042716</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="G2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.0166053904042716</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.0166053904042716</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3027,23 +3210,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3051,10 +3234,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
@@ -3062,10 +3245,13 @@
       <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="17"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="127">
   <si>
     <t>Id</t>
   </si>
@@ -170,7 +170,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -182,7 +182,7 @@
     <t>test_submodel</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -221,19 +221,19 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat</t>
@@ -473,9 +470,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -517,56 +514,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,21 +535,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,6 +559,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -616,22 +581,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,15 +638,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,7 +677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +731,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,37 +791,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,103 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,30 +868,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -914,6 +887,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -924,21 +912,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,8 +930,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,145 +939,169 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,7 +1831,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1895,11 +1892,9 @@
       <c r="D2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>87</v>
@@ -1950,10 +1945,10 @@
         <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2009,7 +2004,7 @@
         <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2063,13 +2058,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>64</v>
@@ -2105,12 +2100,12 @@
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2135,10 +2130,10 @@
         <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>64</v>
@@ -2161,24 +2156,18 @@
     </row>
     <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D2" s="6">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6">
         <v>0.3</v>
@@ -2189,24 +2178,21 @@
     </row>
     <row r="4" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D4" s="6">
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6">
         <v>100</v>
@@ -2219,28 +2205,23 @@
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="3">
         <v>1100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D7" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2315,7 +2296,7 @@
   <sheetPr/>
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2336,10 +2317,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>64</v>
@@ -2348,10 +2329,10 @@
         <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>23</v>
@@ -2366,22 +2347,22 @@
         <v>27</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>16</v>
@@ -2431,10 +2412,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>64</v>
@@ -2443,7 +2424,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>16</v>
@@ -2584,46 +2565,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2738,7 +2719,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -2777,7 +2758,7 @@
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2801,7 +2782,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3112,7 +3093,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3170,7 +3151,7 @@
       <c r="C2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="6">
@@ -3187,7 +3168,7 @@
       <c r="C3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="6">

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -469,10 +469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -514,15 +514,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,23 +539,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,40 +602,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,15 +617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,15 +640,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -656,7 +649,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +677,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,37 +743,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +791,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,121 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,32 +871,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,6 +921,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -936,11 +945,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,155 +968,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1892,7 +1892,6 @@
       <c r="D2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="6"/>
       <c r="F2" s="10" t="s">
         <v>92</v>
       </c>
@@ -2100,7 +2099,7 @@
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2628,10 +2627,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,11 @@
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
     <sheet name="References" sheetId="16" r:id="rId20"/>
+    <sheet name="Authors" sheetId="22" r:id="rId21"/>
+    <sheet name="Changes" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
@@ -45,8 +47,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="141">
   <si>
     <t>Id</t>
   </si>
@@ -116,321 +118,315 @@
     <t>0.0.1</t>
   </si>
   <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>test_submodel</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>spec_type_0</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>spec_type_1</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>test_reaction_1</t>
+  </si>
+  <si>
+    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>test_reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>carbonExchangeRate</t>
+  </si>
+  <si>
+    <t>mmol gDCW^-1 h^-1</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>nonCarbonExchangeRate</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>test_submodel</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>spec_type_0</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>spec_type_1</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>test_reaction_1</t>
-  </si>
-  <si>
-    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>test_reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>carbonExchangeRate</t>
-  </si>
-  <si>
-    <t>mmol gDCW^-1 h^-1</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>nonCarbonExchangeRate</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Experiment type</t>
-  </si>
-  <si>
-    <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -462,6 +458,54 @@
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -469,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -514,9 +558,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,65 +669,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,29 +693,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -633,30 +700,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +721,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +805,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,163 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,11 +930,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,11 +962,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,30 +1007,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -971,134 +1015,134 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1109,13 +1153,13 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1531,20 +1575,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.78333333333333" style="3"/>
+    <col min="1" max="1" width="8.78333333333333" style="1"/>
     <col min="2" max="2" width="8.78333333333333" style="6"/>
-    <col min="3" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="3" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -1594,26 +1638,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:1">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1622,23 +1666,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B15">
+  <autoFilter ref="A1:B12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1675,37 +1704,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>51</v>
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1733,20 +1762,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="3" customWidth="1"/>
-    <col min="15" max="1027" width="8.78333333333333" style="3"/>
-    <col min="1028" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="1027" width="8.78333333333333" style="1"/>
+    <col min="1028" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
@@ -1757,58 +1786,58 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1836,12 +1865,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="3"/>
-    <col min="3" max="3" width="13.5" style="3"/>
-    <col min="4" max="5" width="8.78333333333333" style="3"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="13.5" style="1"/>
+    <col min="4" max="5" width="8.78333333333333" style="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -1852,51 +1881,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1953,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -1935,34 +1964,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1997,28 +2026,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2057,31 +2086,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2109,13 +2138,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.78333333333333" style="3"/>
-    <col min="4" max="4" width="9.25" style="3"/>
-    <col min="5" max="5" width="8.78333333333333" style="3"/>
-    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
-    <col min="7" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.78333333333333" style="1"/>
+    <col min="4" max="4" width="9.25" style="1"/>
+    <col min="5" max="5" width="8.78333333333333" style="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -2126,101 +2155,101 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="6">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="6">
         <v>0.3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="6">
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="6">
         <v>100</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
+      <c r="A6" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1100</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>103</v>
+      <c r="F6" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>104</v>
+      <c r="A7" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D7" s="8">
         <v>6.02214075862e+23</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>105</v>
+      <c r="F7" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2259,25 +2288,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +2334,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
@@ -2316,64 +2345,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2397,9 +2426,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="3"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
@@ -2411,31 +2440,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -2493,8 +2522,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -2509,22 +2538,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2552,8 +2581,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1025" width="8.78333333333333" style="3"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
@@ -2564,52 +2593,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2622,22 +2651,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
-    <col min="3" max="1018" width="8.78333333333333" style="3"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="1"/>
     <col min="1019" max="1019" width="8.78333333333333" style="12"/>
     <col min="1020" max="16384" width="9" style="12"/>
   </cols>
@@ -2646,8 +2814,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
@@ -2657,49 +2825,49 @@
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
         <v>7.75</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2723,8 +2891,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -2735,30 +2903,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2786,10 +2954,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="13" width="8.78333333333333" style="3"/>
-    <col min="14" max="15" width="8.875" style="3" customWidth="1"/>
-    <col min="16" max="1031" width="8.78333333333333" style="3"/>
-    <col min="1032" max="16384" width="9" style="3"/>
+    <col min="1" max="13" width="8.78333333333333" style="1"/>
+    <col min="14" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="1031" width="8.78333333333333" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
@@ -2800,85 +2968,85 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>52</v>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2906,8 +3074,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2918,42 +3086,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6">
         <v>1000</v>
@@ -2962,15 +3130,15 @@
         <v>-1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -2979,7 +3147,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3007,9 +3175,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="6" width="15.5333333333333" style="3"/>
-    <col min="7" max="1026" width="9.10833333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="6" width="15.5333333333333" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -3020,56 +3188,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>66</v>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3097,12 +3265,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="8.78333333333333" style="3"/>
-    <col min="2" max="2" width="11.5" style="3"/>
-    <col min="3" max="3" width="8.78333333333333" style="3"/>
-    <col min="4" max="5" width="11.5" style="3"/>
-    <col min="6" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="8.78333333333333" style="1"/>
+    <col min="2" max="2" width="11.5" style="1"/>
+    <col min="3" max="3" width="8.78333333333333" style="1"/>
+    <col min="4" max="5" width="11.5" style="1"/>
+    <col min="6" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -3113,68 +3281,68 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="6">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
+      <c r="A3" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="6">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3202,8 +3370,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -3214,25 +3382,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="142">
   <si>
     <t>Id</t>
   </si>
@@ -421,6 +421,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -487,6 +490,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -500,9 +506,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -513,10 +516,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -558,18 +561,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -580,16 +574,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -597,51 +586,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,14 +599,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -670,7 +606,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,9 +629,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,7 +666,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,13 +724,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,49 +796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +826,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,55 +862,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,25 +898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,17 +918,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,50 +947,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,146 +968,187 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2414,14 +2417,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2432,7 +2435,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2465,6 +2468,9 @@
       </c>
       <c r="K1" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -2593,46 +2599,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
@@ -2677,31 +2683,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
@@ -2719,14 +2725,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2734,7 +2740,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2745,43 +2751,46 @@
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
